--- a/DateBase/orders/Dang Nguyen_2024-10-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-28.xlsx
@@ -777,6 +777,9 @@
       <c r="C41" t="str">
         <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -838,7 +841,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0301010515101510202124521242581522017255205582082010101021015525150</v>
+        <v>0301010515101510202124521242581522017255205582082010101021015525153</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-28.xlsx
@@ -778,7 +778,7 @@
         <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
       </c>
       <c r="F41" t="str">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +841,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0301010515101510202124521242581522017255205582082010101021015525153</v>
+        <v>03010105151015102021245212425815220172552055820820101010210155251530</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-28.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -781,9 +781,259 @@
         <v>30</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>7</v>
+      </c>
+      <c r="C42" t="str">
+        <v>595_玉兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>596_橄榄叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>75_爱心_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>8</v>
+      </c>
+      <c r="C47" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>607_康乃馨芙蓉_light orange_undefined_20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>605_康乃馨流光粉_light pink_undefined_20stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>468_水仙百合_Alstroemeria_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
+      <c r="C52" t="str" xml:space="preserve">
+        <v xml:space="preserve">499_小飞燕浅蓝_delphinium ballkleid
+light blue_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>436_木百合_leucadendron _undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>104_绣球重瓣紫_Hydrangea Purple D_Hydrangea L._1stem</v>
+      </c>
+      <c r="F54" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>558_油画小菊_Helenium_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>367_高山羊齿叶_lady fern_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F61" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>9</v>
+      </c>
+      <c r="C63" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F65" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F66" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>457_茴香花_lace flower yellow_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>310_彩星 黄_Tinted Gypso yellow_undefined_0.5kg</v>
+      </c>
+      <c r="F68" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>10</v>
+      </c>
+      <c r="C69" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F69" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F70" t="str">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -841,7 +1091,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03010105151015102021245212425815220172552055820820101010210155251530</v>
+        <v>0301010515101510202124521242581522017255205582082010101021015525153025301220151111105115510202510102020113210121016440</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-28.xlsx
@@ -1030,6 +1030,9 @@
       <c r="C71" t="str">
         <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F71" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1091,7 +1094,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0301010515101510202124521242581522017255205582082010101021015525153025301220151111105115510202510102020113210121016440</v>
+        <v>0301010515101510202124521242581522017255205582082010101021015525153025301220151111105115510202510102020113210121016446</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-28.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1034,9 +1034,112 @@
         <v>6</v>
       </c>
     </row>
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str">
+        <v>11</v>
+      </c>
+      <c r="C72" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>450_柔丽思 黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>195_闺蜜_Alter Ego_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F74" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F75" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F76" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F77" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>12</v>
+      </c>
+      <c r="C78" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F78" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>408_姜荷花 白_Curcuma white_undefined_1bunch</v>
+      </c>
+      <c r="F80" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>675_大丽花 黄桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F81" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>480_蝴蝶洋牡丹_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F82" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>562_单瓣银莲_Anemone_undefined_1bunch</v>
+      </c>
+      <c r="F83" t="str">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L83"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1094,7 +1197,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0301010515101510202124521242581522017255205582082010101021015525153025301220151111105115510202510102020113210121016446</v>
+        <v>0301010515101510202124521242581522017255205582082010101021015525153025301220151111105115510202510102020113210121016446158565415201512224</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-28.xlsx
@@ -1199,6 +1199,9 @@
       <c r="G2" t="str">
         <v>0301010515101510202124521242581522017255205582082010101021015525153025301220151111105115510202510102020113210121016446158565415201512224</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
